--- a/medicine/Enfance/Jean_Petithuguenin/Jean_Petithuguenin.xlsx
+++ b/medicine/Enfance/Jean_Petithuguenin/Jean_Petithuguenin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Alexandre Petithuguenin[1] dit J.A. de Saint Valry, né le 12 août 1878 à Saint-Valery-sur-Somme[2] et mort le 14 février 1939 dans le 10e arrondissement de Paris[3], est un écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Alexandre Petithuguenin dit J.A. de Saint Valry, né le 12 août 1878 à Saint-Valery-sur-Somme et mort le 14 février 1939 dans le 10e arrondissement de Paris, est un écrivain français.
 Auteur de littérature populaire, dont de nombreux romans sentimentaux ou policiers, il est aussi traducteur de l'anglais, de l'allemand et de plusieurs romans norvégiens de Knut Hamsun. Il a par ailleurs adapté des films sous forme de novélisations.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Écrivain très prolifique de littérature populaire, il publie chez Ferenczi &amp; fils, chez Rouff et chez Tallandier, ainsi que chez Baudinière des romans historiques, quelques romans fantastiques, dont L'Amante réincarnée (1931), et des textes de science-fiction, notamment Une mission internationale dans la Lune (1926)[4], Si vieillesse pouvait ! (1928) et Le Grand Courant (1932). Pourtant, l'essentiel de sa production appartient aux récits sentimentaux lourdement moralisateurs et à la littérature policière. 
-Dans le genre policier, il est le créateur en 1933 du personnage du détective « René Picard, surnommé Ned Pic, doté d'extraordinaires facultés de déduction. Ses autres romans policiers sont assez ternes : une trilogie brouillonne, le Roi de l'abîme et [...] Houdini le maître du mystère (1921), sans grand intérêt »[5]. De cette production routinière se démarque l'extravagant Crime et Sorcellerie (1920), paru chez Ferenczi &amp; fils, où un fou tente d'inoculer des pouvoirs magiques à sa victime.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Écrivain très prolifique de littérature populaire, il publie chez Ferenczi &amp; fils, chez Rouff et chez Tallandier, ainsi que chez Baudinière des romans historiques, quelques romans fantastiques, dont L'Amante réincarnée (1931), et des textes de science-fiction, notamment Une mission internationale dans la Lune (1926), Si vieillesse pouvait ! (1928) et Le Grand Courant (1932). Pourtant, l'essentiel de sa production appartient aux récits sentimentaux lourdement moralisateurs et à la littérature policière. 
+Dans le genre policier, il est le créateur en 1933 du personnage du détective « René Picard, surnommé Ned Pic, doté d'extraordinaires facultés de déduction. Ses autres romans policiers sont assez ternes : une trilogie brouillonne, le Roi de l'abîme et [...] Houdini le maître du mystère (1921), sans grand intérêt ». De cette production routinière se démarque l'extravagant Crime et Sorcellerie (1920), paru chez Ferenczi &amp; fils, où un fou tente d'inoculer des pouvoirs magiques à sa victime.
 En fin de carrière, dans les années 1930, ses textes appartiennent d'emblée à la littérature d'enfance et de jeunesse, comme le prouvent Boubou chez les Peaux-Rouges (1935) et Tim et Fred ches les sauvages (1936).
-Mort à l'Hôpital Lariboisière à l'âge de 60 ans, Jean Petithuguenin était rédacteur en chef de la Revue des poètes, membre de la Société des gens de lettres, sociétaire de l' Association des écrivains combattants et secrétaire du Syndicat des romanciers français[6].
+Mort à l'Hôpital Lariboisière à l'âge de 60 ans, Jean Petithuguenin était rédacteur en chef de la Revue des poètes, membre de la Société des gens de lettres, sociétaire de l' Association des écrivains combattants et secrétaire du Syndicat des romanciers français.
 </t>
         </is>
       </c>
@@ -548,38 +562,85 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Trilogie policière Le Roi de l'abîme
-1928 : Le Signe mystérieux
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Trilogie policière Le Roi de l'abîme</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1928 : Le Signe mystérieux
 1929 : Une énigme vivante
-1929 : Les Pirates fantômes
-Autres romans
+1929 : Les Pirates fantômes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Petithuguenin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Petithuguenin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1910 : Stoerte-Becker, le souverain des océans, roman (fascicules 40-87)
 1912 : Stoerte-Becker, le roi de l'océan, roman (fascicules 1-35)
 1913 : Stoerte-Becker, le roi de l'océan, roman (fascicules 36-50)
 1913 : Le Roi de la mer
-1914 : L'Âge fatal, le roman d'une jeune fille de 18 ans, Paris, éditions A. Eichler (12 fascicules)[7]
+1914 : L'Âge fatal, le roman d'une jeune fille de 18 ans, Paris, éditions A. Eichler (12 fascicules)
 1917 : La Séductrice
 1917 : Les Amants trahis
-1917 : La Délivrance de Noyon, Rouff, coll. Patrie[8]
-1917 : Riri[9], éditions « Collection des petits chefs-d'œuvre »
+1917 : La Délivrance de Noyon, Rouff, coll. Patrie
+1917 : Riri, éditions « Collection des petits chefs-d'œuvre »
 1918 : Les Prétendants de Pauline
 1918 : La Fortune et l'Amour
 1918 : L'Amour et la Honte
 1918 : Cœur torturé
 1918 : Le Premier Choc, Rouff, coll. « Patrie » no 50
-1918 : L'Épopée de Moronvillers, Rouff, coll. « Patrie » no 71[10]
+1918 : L'Épopée de Moronvillers, Rouff, coll. « Patrie » no 71
 1918 : La Victoire de la Marne, Rouff, coll. « Patrie » no 81
-1918 : La Barrière des Vosges, Rouff, coll. « Patrie » no 86[11]
-1918 : La Belle Défense du château de Grivesnes, Rouff, coll. « Patrie » no 91[12]
-1918 : Pour elle[13]
+1918 : La Barrière des Vosges, Rouff, coll. « Patrie » no 86
+1918 : La Belle Défense du château de Grivesnes, Rouff, coll. « Patrie » no 91
+1918 : Pour elle
 1919 : Le Justicier
-1919 : Verdun, Rouff, coll. Patrie[14]
-1919 : L'Allemagne vaincue, Rouff, coll. Patrie[15]
+1919 : Verdun, Rouff, coll. Patrie
+1919 : L'Allemagne vaincue, Rouff, coll. Patrie
 1919 : La Tragédie de Gourmel
 1919 : L'Oubli d'un baiser
 1919 : Le cœur se trompe
-1919 : La Victoire de l'armée Gouraud, Rouff, coll. Patrie[16]
+1919 : La Victoire de l'armée Gouraud, Rouff, coll. Patrie
 1920 : Les Dérailleurs de train
 1920 : Crime et Sorcellerie ; réédition en 1932
 1920 : Le Visiteur invisible
@@ -588,7 +649,7 @@
 1923 : Denise, dactylo
 1923 : Pourquoi m'aimer ?
 1923 : La Danse du désir
-1924 : La Force du rêve[17]
+1924 : La Force du rêve
 1926 : Les Amours de Napoléon
 1926 : Souviens-toi, mon amour !
 1926 : Maldonne
@@ -599,7 +660,7 @@
 1927 : L'Amour à qui perd gagne
 1927 : Les Conjurés de Venise
 1927 : L'Afrique mystérieuse, Tallandier, coll. Grandes aventures et voyages excentriques
-1928 :  La Vie tragique de Marguerite d'Anjou, reine d'Angleterre, Marpon[18]
+1928 :  La Vie tragique de Marguerite d'Anjou, reine d'Angleterre, Marpon
 1928 : Si vieillesse pouvait !
 1928 : Ginette et l'Amour
 1929 : Jean-Maudit
@@ -607,14 +668,14 @@
 1930 : La Douleur généreuse, Tallandier, coll. Romans célèbres de drame et d'amour
 1930 : L'Idéal amant
 1931 : Bonaparte et la Vénitienne
-1931 : Fleur du faubourg, Tallandier, coll. Romans célèbres de drame et d'amour[19]
+1931 : Fleur du faubourg, Tallandier, coll. Romans célèbres de drame et d'amour
 1931 : Gil et son modèle, Tallandier, coll. « Le Livre de Poche Tallandier » no 221
 1931 : Fidèle et soupçonnée, Rouff, coll. « Les Romans vécus » no 44
 1931 : Le Grand Courant
 1931 : Une bataille de l'amour, Tallandier, coll. Romans célèbres de drame et d'amour
 1931 : Une âme en perdition
 1931 : La Fille du condamné, Rouff, coll. « Les Romans vécus » no 53
-1931 : L'Amante réincarnée, Tallandier, coll. Les romans mystérieux[20]
+1931 : L'Amante réincarnée, Tallandier, coll. Les romans mystérieux
 1931 : La Main de Suzanne
 1931 : Suzanne et sa rivale
 1932 : Puisque je vous aime
@@ -638,15 +699,84 @@
 1936 : Mais c'est toi que j'aime !
 1936 : Tim et Fred ches les sauvages
 1938 : L'amour sera ton lot
-Traductions
-1912-1913 : Robert Kraft, Atalanta. La femme énigmatique, traduit de l'allemand par Jean Petithuguenin, éditions Eichler.
-1929 : Henry Rider Haggard, L'Esclave reine (Moon of Israël), traduit de l'anglais par Jean Petithuguenin, éditions Tallandier[21].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Petithuguenin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Petithuguenin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1912-1913 : Robert Kraft, Atalanta. La femme énigmatique, traduit de l'allemand par Jean Petithuguenin, éditions Eichler.
+1929 : Henry Rider Haggard, L'Esclave reine (Moon of Israël), traduit de l'anglais par Jean Petithuguenin, éditions Tallandier.
 1936 : Knut Hamsun, Les Vagabonds (Landstrykere), traduit du norvégien par Jean Petithuguenin, éditions Grasset.
-1937 : Knut Hamsun, L'Éveil de la glèbe (Markens grøde), traduit du norvégien par Jean Petithuguenin, éditions Flammarion[22]
-Novélisations
-1921 : L'Essor, cinéroman en 10 épisodes d'après le scénario de Charles Burguet pour le film L'Essor réalisé par Charles Burguet en 1920[23], édité par J. Ferenczi.
-1927 : Moana, une histoire d'amour en Océanie, cinéroman d'après le scénario de Frances Flaherty pour le film Moana réalisé par Robert Flaherty en 1925[24].
-1929 : La Danse rouge, cinéroman d'après le scénario de James Ashmore Creelman pour le film La Danse rouge (The Red Dance) réalisé par Raoul Walsh en 1928, aux éditions Tallandier[25].
+1937 : Knut Hamsun, L'Éveil de la glèbe (Markens grøde), traduit du norvégien par Jean Petithuguenin, éditions Flammarion</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Petithuguenin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Petithuguenin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Novélisations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1921 : L'Essor, cinéroman en 10 épisodes d'après le scénario de Charles Burguet pour le film L'Essor réalisé par Charles Burguet en 1920, édité par J. Ferenczi.
+1927 : Moana, une histoire d'amour en Océanie, cinéroman d'après le scénario de Frances Flaherty pour le film Moana réalisé par Robert Flaherty en 1925.
+1929 : La Danse rouge, cinéroman d'après le scénario de James Ashmore Creelman pour le film La Danse rouge (The Red Dance) réalisé par Raoul Walsh en 1928, aux éditions Tallandier.
 1930 : La Merveilleuse Vie de Jeanne d'Arc, cinéroman d'après le scénario de Jean-José Frappa pour le film La Merveilleuse Vie de Jeanne d'Arc réalisé par Marco de Gastyne en 1929, aux éditions Tallandier.
 1931 : Cœurs farouches, cinéroman d'après le scénario de Julien Duvivier et Georges d'Esparbès pour le film Cœurs farouches réalisé par Julien Duvivier en 1924, aux éditions Tallandier.
 1931 : La Piste des géants, cinéroman d'après le scénario de Marie Boyle, Jack Peabody et Florence Postal pour le film La Piste des géants (The Big Trail) réalisé par Raoul Walsh en 1930, aux éditions Tallandier.
@@ -654,31 +784,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jean_Petithuguenin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean_Petithuguenin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1924 : Prix Chauchard décerné par la Société des gens de lettres.</t>
         </is>
